--- a/ALL_DATA/TIFF_index/index_2018/sites_2018_stephens.xlsx
+++ b/ALL_DATA/TIFF_index/index_2018/sites_2018_stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/sea_otter_index_2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/ALL_DATA/TIFF_index/index_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2F555-8D28-8D4C-AF23-52C70CA8ECDC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64E95B-239E-D34A-92A2-D0C5FBB2B46F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="1220" windowWidth="18960" windowHeight="14760" xr2:uid="{B7656634-A4D9-CB4B-BCBA-A716DC3A2AB6}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="33540" windowHeight="14700" xr2:uid="{B7656634-A4D9-CB4B-BCBA-A716DC3A2AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>site</t>
   </si>
@@ -130,12 +130,6 @@
     <t>survey_date2_MM/DD/YY</t>
   </si>
   <si>
-    <t>so_duration</t>
-  </si>
-  <si>
-    <t>pop_dens_surv_km2</t>
-  </si>
-  <si>
     <t>date_grass_MM.DD.YY</t>
   </si>
   <si>
@@ -155,6 +149,18 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>so_duration_1</t>
+  </si>
+  <si>
+    <t>so_duration_2</t>
+  </si>
+  <si>
+    <t>pop_dens_surv_km2_1</t>
+  </si>
+  <si>
+    <t>pop_dens_surv_km2_2</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C252BE23-1EDC-7A4D-A693-E082E052B44D}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,10 +530,11 @@
     <col min="6" max="6" width="10.83203125" style="2"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,28 +545,34 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -570,7 +583,7 @@
         <v>55.227691</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>43294</v>
@@ -588,10 +601,16 @@
         <v>7</v>
       </c>
       <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +621,7 @@
         <v>55.585855000000002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>43292</v>
@@ -620,10 +639,16 @@
         <v>14</v>
       </c>
       <c r="J3" s="1">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="1">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,7 +659,7 @@
         <v>55.621174000000003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>43269</v>
@@ -651,11 +676,17 @@
       <c r="I4" s="1">
         <v>14</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
+        <v>14</v>
+      </c>
+      <c r="K4">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,7 +697,7 @@
         <v>55.813558</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
         <v>43264</v>
@@ -683,11 +714,17 @@
       <c r="I5" s="1">
         <v>14</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
+        <v>14</v>
+      </c>
+      <c r="K5">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,7 +735,7 @@
         <v>55.084800000000001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>43323</v>
@@ -716,10 +753,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +773,7 @@
         <v>55.552180999999997</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>43293</v>
@@ -747,11 +790,17 @@
       <c r="I7" s="1">
         <v>14</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.341</v>
+      </c>
+      <c r="L7">
         <v>2.8769999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -762,7 +811,7 @@
         <v>55.192860000000003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>43265</v>
@@ -780,10 +829,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,7 +849,7 @@
         <v>55.740264000000003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>43251</v>
@@ -811,11 +866,17 @@
       <c r="I9" s="1">
         <v>14</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
+        <v>14</v>
+      </c>
+      <c r="K9">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,7 +887,7 @@
         <v>55.865721000000001</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
         <v>43249</v>
@@ -843,11 +904,17 @@
       <c r="I10" s="1">
         <v>14</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
+        <v>14</v>
+      </c>
+      <c r="K10">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,7 +925,7 @@
         <v>55.733423000000002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>43250</v>
@@ -875,11 +942,17 @@
       <c r="I11" s="1">
         <v>14</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
+        <v>14</v>
+      </c>
+      <c r="K11">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,7 +963,7 @@
         <v>55.889904000000001</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>43295</v>
@@ -907,11 +980,17 @@
       <c r="I12" s="1">
         <v>14</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
+        <v>14</v>
+      </c>
+      <c r="K12">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -922,7 +1001,7 @@
         <v>55.214374999999997</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2">
         <v>43267</v>
@@ -940,10 +1019,16 @@
         <v>7</v>
       </c>
       <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -954,7 +1039,7 @@
         <v>55.496471999999997</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
         <v>43279</v>
@@ -972,10 +1057,16 @@
         <v>14</v>
       </c>
       <c r="J14" s="1">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="1">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -986,7 +1077,7 @@
         <v>55.247539000000003</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2">
         <v>43266</v>
@@ -1004,10 +1095,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1115,7 @@
         <v>55.241886999999998</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2">
         <v>43267</v>
@@ -1036,10 +1133,16 @@
         <v>7</v>
       </c>
       <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1050,7 +1153,7 @@
         <v>55.228251999999998</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2">
         <v>43266</v>
@@ -1068,10 +1171,16 @@
         <v>7</v>
       </c>
       <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1191,7 @@
         <v>55.709094</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>43239</v>
@@ -1099,11 +1208,17 @@
       <c r="I18" s="1">
         <v>14</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
+        <v>14</v>
+      </c>
+      <c r="K18">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1229,7 @@
         <v>55.722636999999999</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2">
         <v>43281</v>
@@ -1131,11 +1246,17 @@
       <c r="I19" s="1">
         <v>14</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
+        <v>14</v>
+      </c>
+      <c r="K19">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1267,7 @@
         <v>55.362090000000002</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>43291</v>
@@ -1164,10 +1285,16 @@
         <v>7</v>
       </c>
       <c r="J20" s="1">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="1">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1305,7 @@
         <v>55.282136999999999</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2">
         <v>43322</v>
@@ -1196,10 +1323,16 @@
         <v>7</v>
       </c>
       <c r="J21" s="1">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.341</v>
+      </c>
+      <c r="L21" s="1">
         <v>0.154</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1343,7 @@
         <v>55.485686999999999</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2">
         <v>43276</v>
@@ -1228,10 +1361,16 @@
         <v>14</v>
       </c>
       <c r="J22" s="1">
+        <v>14</v>
+      </c>
+      <c r="K22" s="1">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" s="1">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1242,7 +1381,7 @@
         <v>55.528424000000001</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
         <v>43263</v>
@@ -1260,10 +1399,16 @@
         <v>14</v>
       </c>
       <c r="J23" s="1">
+        <v>14</v>
+      </c>
+      <c r="K23" s="1">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" s="1">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1419,7 @@
         <v>55.684275</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2">
         <v>43238</v>
@@ -1291,11 +1436,17 @@
       <c r="I24" s="1">
         <v>14</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
+        <v>14</v>
+      </c>
+      <c r="K24">
         <v>2.8769999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>2.8769999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1457,7 @@
         <v>55.599083</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2">
         <v>43268</v>
@@ -1324,10 +1475,16 @@
         <v>14</v>
       </c>
       <c r="J25" s="1">
+        <v>14</v>
+      </c>
+      <c r="K25" s="1">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="1">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1495,7 @@
         <v>55.264232</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2">
         <v>43278</v>
@@ -1356,10 +1513,16 @@
         <v>7</v>
       </c>
       <c r="J26" s="1">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26" s="1">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1370,7 +1533,7 @@
         <v>55.188785000000003</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2">
         <v>43265</v>
@@ -1388,6 +1551,12 @@
         <v>7</v>
       </c>
       <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="L27" s="1">
         <v>0.154</v>
       </c>
     </row>

--- a/ALL_DATA/TIFF_index/index_2018/sites_2018_stephens.xlsx
+++ b/ALL_DATA/TIFF_index/index_2018/sites_2018_stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/ALL_DATA/TIFF_index/index_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F64E95B-239E-D34A-92A2-D0C5FBB2B46F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45559A0-E2D3-7B44-8BE0-8F34E714279A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="0" windowWidth="33540" windowHeight="14700" xr2:uid="{B7656634-A4D9-CB4B-BCBA-A716DC3A2AB6}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L2" s="1">
         <v>0.154</v>
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="1">
-        <v>1.341</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L3" s="1">
         <v>1.341</v>
@@ -679,8 +679,8 @@
       <c r="J4" s="1">
         <v>14</v>
       </c>
-      <c r="K4">
-        <v>2.8769999999999998</v>
+      <c r="K4" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L4">
         <v>2.8769999999999998</v>
@@ -717,8 +717,8 @@
       <c r="J5" s="1">
         <v>14</v>
       </c>
-      <c r="K5">
-        <v>2.8769999999999998</v>
+      <c r="K5" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L5">
         <v>2.8769999999999998</v>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L6" s="1">
         <v>0.154</v>
@@ -794,10 +794,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="1">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="L7" s="1">
         <v>1.341</v>
-      </c>
-      <c r="L7">
-        <v>2.8769999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L8" s="1">
         <v>0.154</v>
@@ -869,8 +869,8 @@
       <c r="J9" s="1">
         <v>14</v>
       </c>
-      <c r="K9">
-        <v>2.8769999999999998</v>
+      <c r="K9" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L9">
         <v>2.8769999999999998</v>
@@ -907,8 +907,8 @@
       <c r="J10" s="1">
         <v>14</v>
       </c>
-      <c r="K10">
-        <v>2.8769999999999998</v>
+      <c r="K10" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L10">
         <v>2.8769999999999998</v>
@@ -945,8 +945,8 @@
       <c r="J11" s="1">
         <v>14</v>
       </c>
-      <c r="K11">
-        <v>2.8769999999999998</v>
+      <c r="K11" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L11">
         <v>2.8769999999999998</v>
@@ -983,8 +983,8 @@
       <c r="J12" s="1">
         <v>14</v>
       </c>
-      <c r="K12">
-        <v>2.8769999999999998</v>
+      <c r="K12" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L12">
         <v>2.8769999999999998</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L13" s="1">
         <v>0.154</v>
@@ -1060,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="1">
-        <v>1.341</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L14" s="1">
         <v>1.341</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L15" s="1">
         <v>0.154</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L16" s="1">
         <v>0.154</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L17" s="1">
         <v>0.154</v>
@@ -1211,8 +1211,8 @@
       <c r="J18" s="1">
         <v>14</v>
       </c>
-      <c r="K18">
-        <v>2.8769999999999998</v>
+      <c r="K18" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L18">
         <v>2.8769999999999998</v>
@@ -1249,8 +1249,8 @@
       <c r="J19" s="1">
         <v>14</v>
       </c>
-      <c r="K19">
-        <v>2.8769999999999998</v>
+      <c r="K19" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L19">
         <v>2.8769999999999998</v>
@@ -1288,7 +1288,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="1">
-        <v>1.341</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L20" s="1">
         <v>1.341</v>
@@ -1326,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="K21" s="1">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="L21" s="1">
         <v>1.341</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.154</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="1">
-        <v>1.341</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L22" s="1">
         <v>1.341</v>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="1">
-        <v>1.341</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L23" s="1">
         <v>1.341</v>
@@ -1439,8 +1439,8 @@
       <c r="J24" s="1">
         <v>14</v>
       </c>
-      <c r="K24">
-        <v>2.8769999999999998</v>
+      <c r="K24" s="1">
+        <v>3.6629999999999998</v>
       </c>
       <c r="L24">
         <v>2.8769999999999998</v>
@@ -1478,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="1">
-        <v>1.341</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="L25" s="1">
         <v>1.341</v>
@@ -1516,7 +1516,7 @@
         <v>7</v>
       </c>
       <c r="K26" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L26" s="1">
         <v>0.154</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0.154</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="L27" s="1">
         <v>0.154</v>
